--- a/data/landings/cdfw/public/merged/data/port_complex_lines.xlsx
+++ b/data/landings/cdfw/public/merged/data/port_complex_lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4049D5-BE68-ED4D-A7EC-11357ED0063E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162EE61-B5A0-A040-AA07-D409C42E20DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1360" windowWidth="41680" windowHeight="20280" xr2:uid="{6CA6FBB4-75C9-5447-B7C2-FFEF5ADAD664}"/>
+    <workbookView xWindow="2300" yWindow="2240" windowWidth="41680" windowHeight="20280" xr2:uid="{6CA6FBB4-75C9-5447-B7C2-FFEF5ADAD664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>system</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Sonoma-Marin county line (oceanside)</t>
+  </si>
+  <si>
+    <t>long_dd_hi</t>
+  </si>
+  <si>
+    <t>long_dd_lo</t>
   </si>
 </sst>
 </file>
@@ -272,9 +278,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -289,12 +295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,8 +321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF791B6D-AE06-EC42-86E6-D59AE80A9F83}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,12 +653,14 @@
     <col min="5" max="5" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -681,1004 +683,1176 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4">
+        <v>-124.2098554</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="4">
         <v>40.001260000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="4">
+        <v>-124.019626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>40.001260000000002</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4">
+        <v>-124.019626</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="4">
         <v>38.297136999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="4">
+        <v>-123.00156200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>38.297136999999999</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4">
+        <v>-123.00156200000001</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="4">
         <v>37.818542000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="4">
+        <v>-122.47841099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>37.818542000000001</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="4">
         <v>37.107295999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="K8" s="4">
+        <v>-122.292946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>37.107295999999998</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="4">
         <v>36.851678</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="K9" s="4">
+        <v>-121.809023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>36.851678</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="4">
         <v>35.795183999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="K10" s="4">
+        <v>-121.34468699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>35.795183999999999</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="4">
         <v>34.047122000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="K11" s="4">
+        <v>-118.944672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>34.047122000000002</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="4">
         <v>33.746363000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="4">
+        <v>-118.114059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>33.746363000000002</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="4">
         <v>33.387715999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="K13" s="4">
+        <v>-117.59551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>33.387715999999998</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="4">
         <v>32.534343</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="K14" s="4">
+        <v>-117.12425399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>42</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="4">
         <v>41.050972999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>41.050972999999999</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="4">
         <v>38.955967000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>38.955967000000001</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4"/>
+      <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="4">
         <v>37.183333330000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>37.183333330000004</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4"/>
+      <c r="I19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="4">
         <v>35.666666669999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>35.666666669999998</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="4">
         <v>34.000169233790302</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>34.000169233790302</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4"/>
+      <c r="I21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="4">
         <v>33.386308999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>33.386308999999997</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="4"/>
+      <c r="I22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="4">
         <v>32.534343</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>42</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="4">
         <v>38.766488000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>38.766488000000003</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="4">
         <v>37.107295999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>37.107295999999998</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4"/>
+      <c r="I26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="4">
         <v>35.795183999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>35.795183999999999</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="4"/>
+      <c r="I27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="4">
         <v>34.047122000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <v>34.047122000000002</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4"/>
+      <c r="I28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="4">
         <v>33.387715999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>33.387715999999998</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="4">
         <v>32.534343</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>42</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="4">
+        <v>-124.2098554</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="4">
         <v>40.001260000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="K30" s="4">
+        <v>-124.019626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>40.001260000000002</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="4">
+        <v>-124.019626</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="4">
         <v>38.766488000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="K31" s="4">
+        <v>-123.530835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>38.766488000000003</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="4">
+        <v>-123.530835</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="4">
         <v>37.818542000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="K32" s="4">
+        <v>-122.47841099999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>37.818542000000001</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="4">
+        <v>-122.47841099999999</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="4">
         <v>37.107295999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="K33" s="4">
+        <v>-122.292946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <v>37.107295999999998</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="4">
+        <v>-122.292946</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="4">
         <v>35.795183999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="K35" s="4">
+        <v>-121.34468699999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <v>35.795183999999999</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="4">
+        <v>-121.34468699999999</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="4">
         <v>34.972057999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="K36" s="4">
+        <v>-120.64661700000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>34.972057999999997</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="4">
+        <v>-120.64661700000001</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="4">
         <v>34.047122000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="K37" s="4">
+        <v>-118.944672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>9</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="4">
         <v>34.047122000000002</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="4">
+        <v>-118.944672</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="4">
         <v>33.387715999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="K38" s="4">
+        <v>-117.59551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>10</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="4">
         <v>33.387715999999998</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="4">
+        <v>-117.59551</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="4">
         <v>32.534343</v>
+      </c>
+      <c r="K39" s="4">
+        <v>-117.12425399999999</v>
       </c>
     </row>
   </sheetData>
